--- a/biology/Histoire de la zoologie et de la botanique/Amico_Bignami/Amico_Bignami.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Amico_Bignami/Amico_Bignami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amico Bignami est un  médecin italien, né le 15 avril 1862 à Bologne et mort le 8 septembre 1929 à Rome.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amico Bignami obtient son titre de docteur à Rome en 1882. En 1883, il devient professeur extraordinaire de pathologie et en 1906, professeur à temps plein, à l’université royale de Rome. En 1917, il devient professeur de médecine, fonction qu’il occupe jusqu’en 1921.
 Il s’intéresse particulièrement aux pathologies touchant le cerveau mais ce sont ses recherches sur le paludisme qui le rendent célèbre. Il émet l’hypothèse, en 1896, que le moustique peut être le véhicule de la maladie. Pour démontrer cette idée, il capture des moustiques des régions à haute incidence de paludisme et les fait piquer des personnes indemnes. Mais, comme Ronald Ross (1857-1932), Bignami échoue à apporter la preuve escomptée. Ce n’est que l’année suivante que Ross apportera la démonstration mais chez des oiseaux.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi ses publications :
 Ricerche sull’anatomia patologica delle perniciose (1890),
